--- a/mapping_schemes/central/CMR_RES.xlsx
+++ b/mapping_schemes/central/CMR_RES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/WIP/africa/data/Africa_Map/Central/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8163B6AB-3556-CD46-A3BE-433B5208E4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E699F6-F8C9-8544-8B55-E2F79DA5E74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="880" windowWidth="15680" windowHeight="17120" firstSheet="1" activeTab="2" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
+    <workbookView xWindow="9300" yWindow="880" windowWidth="15680" windowHeight="17120" firstSheet="1" activeTab="1" xr2:uid="{FDFB1767-49BE-9748-8720-0163DBB19794}"/>
   </bookViews>
   <sheets>
     <sheet name="Material_1" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="89">
   <si>
     <t>Urban</t>
   </si>
@@ -2790,10 +2790,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF06C8A-1AE4-2949-8A97-6266F0313480}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3038,46 +3038,46 @@
         <v>2</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>51</v>
+      <c r="A20" t="s">
+        <v>60</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -3085,16 +3085,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -3105,10 +3105,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3119,7 +3119,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2">
         <v>0.35</v>
@@ -3127,30 +3127,30 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2">
-        <v>1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3161,10 +3161,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3175,7 +3175,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2">
         <v>0.2</v>
@@ -3189,45 +3189,44 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D28" s="2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="G29" s="19"/>
+        <v>0.3</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
-      <c r="G30" s="10"/>
+      <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>1</v>
@@ -3236,20 +3235,38 @@
         <v>2</v>
       </c>
       <c r="D31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.5</v>
+      </c>
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3274,11 +3291,13 @@
       <c r="A37" s="10"/>
       <c r="B37" s="5"/>
       <c r="C37" s="3"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="10"/>
       <c r="B38" s="5"/>
       <c r="C38" s="3"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
@@ -3321,14 +3340,14 @@
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
+      <c r="A47" s="10"/>
       <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
+      <c r="A48" s="10"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
@@ -3338,12 +3357,12 @@
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="3"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
@@ -3353,6 +3372,7 @@
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
@@ -3362,7 +3382,6 @@
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
@@ -3413,6 +3432,16 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3424,8 +3453,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
